--- a/outputs-r202/test-f__UBA1067.xlsx
+++ b/outputs-r202/test-f__UBA1067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,14 +92,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,204 +117,204 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.85546875" customWidth="true"/>
-    <col min="3" max="3" width="15.140625" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
-    <col min="9" max="9" width="14.7109375" customWidth="true"/>
-    <col min="10" max="10" width="15.5703125" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="15.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="C2">
-        <v>0.041010999588510837</v>
+        <v>0.049948990901738238</v>
       </c>
       <c r="D2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="E2">
-        <v>1.7164118639796152e-11</v>
+        <v>2.3999300825464677e-10</v>
       </c>
       <c r="F2">
-        <v>0.95898900039416957</v>
+        <v>0.9001020179563971</v>
       </c>
       <c r="G2">
-        <v>2.2200153503102338e-14</v>
+        <v>0.049948990901738252</v>
       </c>
       <c r="H2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="I2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="J2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="K2">
-        <v>2.2200153503102338e-14</v>
+        <v>2.222169545181866e-14</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.001091148928923143</v>
+        <v>0.00071091341255670026</v>
       </c>
       <c r="C3">
-        <v>0.001091148928923143</v>
+        <v>0.00071091341255670026</v>
       </c>
       <c r="D3">
-        <v>0.0010911489289231427</v>
+        <v>0.00071091341255670015</v>
       </c>
       <c r="E3">
-        <v>0.99014406664167665</v>
+        <v>0.99359643667910047</v>
       </c>
       <c r="F3">
-        <v>0.0011267419269380978</v>
+        <v>0.0007162560204459588</v>
       </c>
       <c r="G3">
-        <v>0.0010911489289231503</v>
+        <v>0.00071091341255670633</v>
       </c>
       <c r="H3">
-        <v>0.0010911489289231525</v>
+        <v>0.00071091341255670936</v>
       </c>
       <c r="I3">
-        <v>0.0010911489289231525</v>
+        <v>0.0007109134125567098</v>
       </c>
       <c r="J3">
-        <v>0.0010911489289231525</v>
+        <v>0.0007109134125567098</v>
       </c>
       <c r="K3">
-        <v>0.0010911489289231477</v>
+        <v>0.0007109134125567047</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="C4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="D4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="E4">
-        <v>4.3052586342265904e-06</v>
+        <v>0.0041452540538876592</v>
       </c>
       <c r="F4">
-        <v>0.96182490173618806</v>
+        <v>0.99585474594593482</v>
       </c>
       <c r="G4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="H4">
-        <v>0.038170793005022303</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="I4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="J4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="K4">
-        <v>2.2199789402202546e-14</v>
+        <v>2.2199824811670234e-14</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="E5">
-        <v>6.8339192034605581e-05</v>
+        <v>8.1034355628891214e-06</v>
       </c>
       <c r="F5">
-        <v>0.99993166080778784</v>
+        <v>0.99999189656425946</v>
       </c>
       <c r="G5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="K5">
-        <v>2.2204310173287484e-14</v>
+        <v>2.2204442722737071e-14</v>
       </c>
       <c r="L5">
         <v>5</v>
